--- a/biology/Médecine/Wendy_Rogers/Wendy_Rogers.xlsx
+++ b/biology/Médecine/Wendy_Rogers/Wendy_Rogers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Wendy Anne Rogers (née en 1957) est professeure australienne d'éthique clinique à l'Université Macquarie de Sydney, en Australie[1],[2]. Elle est nommée parmi les 10 personnes importantes de Nature en 2019 pour avoir révélé les problèmes éthiques des études chinoises sur la transplantation d'organes[3],[4],[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wendy Anne Rogers (née en 1957) est professeure australienne d'éthique clinique à l'Université Macquarie de Sydney, en Australie,. Elle est nommée parmi les 10 personnes importantes de Nature en 2019 pour avoir révélé les problèmes éthiques des études chinoises sur la transplantation d'organes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Éducation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rogers commence ses études supérieures à l'Université Flinders où elle obtient une licence de Médecine et de Chirurgie [BMBS Bachelors of Medicine and Surgery] en 1983. Elle s'intéresse après sa licence à l'éthique et à la réévaluation des normes en matière d'obstétrique, de gynécologie et de santé des femmes. Elle entre notamment en 1985 dans l'Association Royale Australienne et Néo-Zélandaise des Obstétriciens et Gynécologues (en) et en 1987 l'organisation : Royal College of General Practitioners (RCGP) (en), Royal Australian and New Zealand College of Obstetricians and Gynaecologists[6]. Tout en travaillant à temps partiel comme médecin généraliste, elle obtient une licence de philosophie et de littérature anglaise en 1994, toujours dans l'université de Flinders. Elle z pour volonté de réunir la médecine et la philosophie dans le domaine de l'éthique médicale[7]. Elle a son doctorat en 1998 sur la moralité en médecine générale à l'université Flinders.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rogers commence ses études supérieures à l'Université Flinders où elle obtient une licence de Médecine et de Chirurgie [BMBS Bachelors of Medicine and Surgery] en 1983. Elle s'intéresse après sa licence à l'éthique et à la réévaluation des normes en matière d'obstétrique, de gynécologie et de santé des femmes. Elle entre notamment en 1985 dans l'Association Royale Australienne et Néo-Zélandaise des Obstétriciens et Gynécologues (en) et en 1987 l'organisation : Royal College of General Practitioners (RCGP) (en), Royal Australian and New Zealand College of Obstetricians and Gynaecologists. Tout en travaillant à temps partiel comme médecin généraliste, elle obtient une licence de philosophie et de littérature anglaise en 1994, toujours dans l'université de Flinders. Elle z pour volonté de réunir la médecine et la philosophie dans le domaine de l'éthique médicale. Elle a son doctorat en 1998 sur la moralité en médecine générale à l'université Flinders.
 </t>
         </is>
       </c>
@@ -542,11 +556,48 @@
           <t>Carrière et recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après son doctorat, elle travaille à plein temps dans le milieu universitaire. En 2009, elle arrive l'Université Macquarie, pour occuper un poste conjoint à la faculté de médecine et au département de philosophie[7]. Rogers travaille sur la Bioéthique pratique et la Surdiagnostic[8]. Elle s'intéresse à l'Intelligence artificielle (IA), à l'éthique médicale, à l'Intelligence artificielle dans la santé et à l'Éthique en chirurgie[2].  
-Prix et distinctions
-Rogers est nommé l'une des 10 personnes importantes de Nature en 2019 pour avoir révélé les problèmes éthiques des études chinoises sur la transplantation d'organes[3]. Nature cite son rapport dans BMJ Open, qui analyse 445 études chinoises décrivant plus de 85 000 transplantations individuelles. Il est constaté que 99 % du temps, les articles ne prouvent pas de manière adéquate le consentement à la procédure de transplantation[4]. En 2019, elle reçoit le prix d'éthique du Conseil national de la santé et de la recherche médicale (NHMRC) et est nommée leader national de la recherche dans le domaine de la Bioéthique par le journal The Australian[2]. Elle est élue membre de l'Académie Australienne des Sciences Humaines (en)en 2021[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après son doctorat, elle travaille à plein temps dans le milieu universitaire. En 2009, elle arrive l'Université Macquarie, pour occuper un poste conjoint à la faculté de médecine et au département de philosophie. Rogers travaille sur la Bioéthique pratique et la Surdiagnostic. Elle s'intéresse à l'Intelligence artificielle (IA), à l'éthique médicale, à l'Intelligence artificielle dans la santé et à l'Éthique en chirurgie.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Wendy_Rogers</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wendy_Rogers</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Carrière et recherche</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rogers est nommé l'une des 10 personnes importantes de Nature en 2019 pour avoir révélé les problèmes éthiques des études chinoises sur la transplantation d'organes. Nature cite son rapport dans BMJ Open, qui analyse 445 études chinoises décrivant plus de 85 000 transplantations individuelles. Il est constaté que 99 % du temps, les articles ne prouvent pas de manière adéquate le consentement à la procédure de transplantation. En 2019, elle reçoit le prix d'éthique du Conseil national de la santé et de la recherche médicale (NHMRC) et est nommée leader national de la recherche dans le domaine de la Bioéthique par le journal The Australian. Elle est élue membre de l'Académie Australienne des Sciences Humaines (en)en 2021.
 </t>
         </is>
       </c>
